--- a/BackTest/2019-10-27 BackTest POWR.xlsx
+++ b/BackTest/2019-10-27 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-44653.84380000001</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46722.84380000001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60151.70870000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-59532.70870000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-59659.80910000001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-78792.70180000001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-76415.70180000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-82906.88910000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-112130.1981</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-110082.8982</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-126040.284</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-208451.153</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-208746.4998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>50.4</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-204424.33</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,10 +2680,14 @@
         <v>-204424.33</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>50.8</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2698,8 +2720,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2795,19 @@
         <v>-205880.3561</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2796,9 +2838,17 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2880,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2916,19 @@
         <v>-205880.3561</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2957,19 @@
         <v>-205855.2237</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2928,9 +3000,17 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3039,19 @@
         <v>-205855.2237</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2994,9 +3082,17 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3160,17 @@
         <v>-175762.9074</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3241,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3280,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3355,19 @@
         <v>-176727.8565</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3396,19 @@
         <v>-187127.8565</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3437,19 @@
         <v>-186367.8565</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,15 +3478,19 @@
         <v>-187652.8565</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>50.7</v>
       </c>
       <c r="J89" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>50.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,17 +3519,17 @@
         <v>-189045.2316</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>50.6</v>
       </c>
       <c r="J90" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3400,13 +3560,13 @@
         <v>-189045.2316</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>50.5</v>
       </c>
       <c r="J91" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3441,13 +3601,11 @@
         <v>-189045.2316</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3482,13 +3640,13 @@
         <v>-185761.2216</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>50.5</v>
       </c>
       <c r="J93" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3527,7 +3685,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3566,7 +3724,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3605,7 +3763,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3640,11 +3798,13 @@
         <v>-205572.1712</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>50.3</v>
+      </c>
       <c r="J97" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3681,9 +3841,11 @@
       <c r="H98" t="n">
         <v>1</v>
       </c>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>50.4</v>
+      </c>
       <c r="J98" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3718,11 +3880,13 @@
         <v>-200368.2396</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>50.4</v>
+      </c>
       <c r="J99" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3757,11 +3921,13 @@
         <v>-200568.2396</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>50.7</v>
+      </c>
       <c r="J100" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3798,9 +3964,11 @@
       <c r="H101" t="n">
         <v>1</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J101" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3837,9 +4005,11 @@
       <c r="H102" t="n">
         <v>1</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>50.6</v>
+      </c>
       <c r="J102" t="n">
-        <v>50.7</v>
+        <v>50.8</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3852,6 +4022,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest POWR.xlsx
+++ b/BackTest/2019-10-27 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-44653.84380000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46722.84380000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60151.70870000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-59532.70870000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-59659.80910000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-78792.70180000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-76415.70180000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-88529.82080000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-113438.9291</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-107695.2882</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-112130.1981</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-110082.8982</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-126040.284</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2134,10 +2134,14 @@
         <v>-228766.3855</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>50.2</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2167,11 +2171,19 @@
         <v>-233788.0163</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2251,19 @@
         <v>-189971.0671</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2295,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2334,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2370,19 @@
         <v>-195550.4029</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2414,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2450,19 @@
         <v>-208440.153</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2530,19 @@
         <v>-207373.5188</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2571,19 @@
         <v>-207373.5188</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2612,19 @@
         <v>-211669.8855</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,15 +2653,17 @@
         <v>-208746.4998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>50.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>50.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2606,11 +2698,11 @@
         <v>50.6</v>
       </c>
       <c r="J67" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2641,15 +2733,17 @@
         <v>-204424.33</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>50.8</v>
+      </c>
       <c r="J68" t="n">
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2686,9 +2780,13 @@
         <v>50.8</v>
       </c>
       <c r="J69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>50.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2819,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2760,7 +2858,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2795,13 +2893,11 @@
         <v>-205880.3561</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2842,7 +2938,7 @@
         <v>50.5</v>
       </c>
       <c r="J73" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2881,7 +2977,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2922,7 +3018,7 @@
         <v>50.5</v>
       </c>
       <c r="J75" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2963,7 +3059,7 @@
         <v>50.5</v>
       </c>
       <c r="J76" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -2998,13 +3094,11 @@
         <v>-205855.2237</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3039,13 +3133,11 @@
         <v>-205855.2237</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3080,13 +3172,11 @@
         <v>-175773.9074</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3125,7 +3215,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3164,7 +3254,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3203,7 +3293,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3242,7 +3332,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3281,7 +3371,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3320,7 +3410,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3355,13 +3445,11 @@
         <v>-176727.8565</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3396,13 +3484,11 @@
         <v>-187127.8565</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>51.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3437,13 +3523,11 @@
         <v>-186367.8565</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3478,13 +3562,11 @@
         <v>-187652.8565</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>50.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3519,13 +3601,11 @@
         <v>-189045.2316</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>50.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3560,13 +3640,11 @@
         <v>-189045.2316</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3605,7 +3683,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3640,13 +3718,11 @@
         <v>-185761.2216</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3685,7 +3761,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3724,7 +3800,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3759,11 +3835,13 @@
         <v>-205665.444</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>50.4</v>
+      </c>
       <c r="J96" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3804,7 +3882,7 @@
         <v>50.3</v>
       </c>
       <c r="J97" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3839,13 +3917,11 @@
         <v>-205572.1712</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3886,7 +3962,7 @@
         <v>50.4</v>
       </c>
       <c r="J99" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3927,7 +4003,7 @@
         <v>50.7</v>
       </c>
       <c r="J100" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3962,13 +4038,11 @@
         <v>-194333.2327</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>50.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4009,7 +4083,7 @@
         <v>50.6</v>
       </c>
       <c r="J102" t="n">
-        <v>50.8</v>
+        <v>50.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4022,6 +4096,6 @@
       <c r="M102" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest POWR.xlsx
+++ b/BackTest/2019-10-27 BackTest POWR.xlsx
@@ -451,7 +451,7 @@
         <v>-44653.84380000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46722.84380000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-60151.70870000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-59532.70870000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-59659.80910000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-85270.29920000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-82906.88910000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-88529.82080000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-88256.85970000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-113438.9291</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-107695.2882</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-112130.1981</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2134,14 +2134,10 @@
         <v>-228766.3855</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>50.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2171,1330 +2167,1144 @@
         <v>-233788.0163</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>50.3</v>
       </c>
-      <c r="J54" t="n">
+      <c r="C55" t="n">
         <v>50.2</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="D55" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5348.7282</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-233788.0163</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E56" t="n">
+        <v>50</v>
+      </c>
+      <c r="F56" t="n">
+        <v>43816.9492</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-189971.0671</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>23834.03</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-213805.0971</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E58" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18254.6942</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-195550.4029</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1482.3045</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-195550.4029</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12900.7501</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-208451.153</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-208440.153</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C62" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>989</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-208440.153</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1066.6342</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-207373.5188</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C64" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-207373.5188</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4296.3667</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-211669.8855</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2923.3857</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-208746.4998</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4322.1698</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-204424.33</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>793</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-204424.33</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-204424.33</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7251.8303</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-197172.4997</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5138.6554</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-202311.1551</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E72" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3569.201</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-205880.3561</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>38713.9999</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-205880.3561</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3789.2955</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-205880.3561</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E55" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5348.7282</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-233788.0163</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>792.338</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-205880.3561</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>25.1324</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-205855.2237</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1401</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-205855.2237</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>916.2056</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-205855.2237</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>30081.3163</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-175773.9074</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>11</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-175762.9074</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E81" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3506.9395</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-175762.9074</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11.5268</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-175751.3806</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-175751.3806</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18303</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-175751.3806</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-176751.3806</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C86" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>23.5241</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-176727.8565</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-187127.8565</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C56" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="E56" t="n">
-        <v>50</v>
-      </c>
-      <c r="F56" t="n">
-        <v>43816.9492</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-189971.0671</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D57" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="F57" t="n">
-        <v>23834.03</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-213805.0971</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E58" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>18254.6942</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-195550.4029</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1482.3045</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-195550.4029</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>12900.7501</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-208451.153</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E61" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>11</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-208440.153</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C62" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E62" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F62" t="n">
-        <v>989</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-208440.153</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C63" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E63" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1066.6342</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-207373.5188</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C64" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D64" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E64" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-207373.5188</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C65" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E65" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F65" t="n">
-        <v>4296.3667</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-211669.8855</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C66" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E66" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2923.3857</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-208746.4998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C67" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F67" t="n">
-        <v>4322.1698</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>793</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J69" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C70" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="D70" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E70" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7251.8303</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-197172.4997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="C71" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D71" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="E71" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5138.6554</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-202311.1551</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E72" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3569.201</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>38713.9999</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>3789.2955</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>792.338</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>25.1324</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C77" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E77" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1401</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D78" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E78" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>916.2056</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>30081.3163</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-175773.9074</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C80" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E80" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F80" t="n">
-        <v>11</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-175762.9074</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C81" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D81" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3506.9395</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-175762.9074</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C82" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D82" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E82" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F82" t="n">
-        <v>11.5268</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D83" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E83" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D84" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>18303</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-176751.3806</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D86" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="E86" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="F86" t="n">
-        <v>23.5241</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-176727.8565</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>10400</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-187127.8565</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3333,13 @@
         <v>-186367.8565</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50.6</v>
+      </c>
       <c r="J88" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3562,11 +3374,13 @@
         <v>-187652.8565</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>50.7</v>
+      </c>
       <c r="J89" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3601,11 +3415,13 @@
         <v>-189045.2316</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>50.6</v>
+      </c>
       <c r="J90" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3640,11 +3456,13 @@
         <v>-189045.2316</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J91" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3679,11 +3497,13 @@
         <v>-189045.2316</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J92" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3718,11 +3538,13 @@
         <v>-185761.2216</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J93" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3761,7 +3583,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3800,7 +3622,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3841,7 +3663,7 @@
         <v>50.4</v>
       </c>
       <c r="J96" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3882,7 +3704,7 @@
         <v>50.3</v>
       </c>
       <c r="J97" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3917,11 +3739,13 @@
         <v>-205572.1712</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>50.4</v>
+      </c>
       <c r="J98" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3962,7 +3786,7 @@
         <v>50.4</v>
       </c>
       <c r="J99" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4003,7 +3827,7 @@
         <v>50.7</v>
       </c>
       <c r="J100" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4038,11 +3862,13 @@
         <v>-194333.2327</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>50.5</v>
+      </c>
       <c r="J101" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4083,7 +3909,7 @@
         <v>50.6</v>
       </c>
       <c r="J102" t="n">
-        <v>50.2</v>
+        <v>50.8</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>

--- a/BackTest/2019-10-27 BackTest POWR.xlsx
+++ b/BackTest/2019-10-27 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>18800</v>
       </c>
       <c r="G2" t="n">
-        <v>-44653.84380000001</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2069</v>
       </c>
       <c r="G3" t="n">
-        <v>-46722.84380000001</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>13428.8649</v>
       </c>
       <c r="G4" t="n">
-        <v>-60151.70870000001</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>619</v>
       </c>
       <c r="G5" t="n">
-        <v>-59532.70870000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>127.1004</v>
       </c>
       <c r="G6" t="n">
-        <v>-59659.80910000001</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>19132.8927</v>
       </c>
       <c r="G7" t="n">
-        <v>-78792.70180000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2377</v>
       </c>
       <c r="G8" t="n">
-        <v>-76415.70180000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8854.597400000001</v>
       </c>
       <c r="G9" t="n">
-        <v>-85270.29920000001</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>57231.8</v>
       </c>
       <c r="G10" t="n">
-        <v>-85270.29920000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2363.4101</v>
       </c>
       <c r="G11" t="n">
-        <v>-82906.88910000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>5622.9317</v>
       </c>
       <c r="G12" t="n">
-        <v>-88529.82080000002</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>272.9611</v>
       </c>
       <c r="G13" t="n">
-        <v>-88256.85970000002</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>4426.1209</v>
       </c>
       <c r="G14" t="n">
-        <v>-88256.85970000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>25182.0694</v>
       </c>
       <c r="G15" t="n">
-        <v>-113438.9291</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1666</v>
       </c>
       <c r="G16" t="n">
-        <v>-113438.9291</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5743.6409</v>
       </c>
       <c r="G17" t="n">
-        <v>-107695.2882</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4434.9099</v>
       </c>
       <c r="G18" t="n">
-        <v>-112130.1981</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>5183.2451</v>
       </c>
       <c r="G19" t="n">
-        <v>-112130.1981</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>787.2999</v>
       </c>
       <c r="G20" t="n">
-        <v>-111342.8982</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1260</v>
       </c>
       <c r="G21" t="n">
-        <v>-110082.8982</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3722.254</v>
       </c>
       <c r="G22" t="n">
-        <v>-113805.1522</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>806</v>
       </c>
       <c r="G23" t="n">
-        <v>-112999.1522</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3320.2814</v>
       </c>
       <c r="G24" t="n">
-        <v>-116319.4336</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2303.126</v>
       </c>
       <c r="G25" t="n">
-        <v>-118622.5596</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>8465.724399999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-127088.284</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1048</v>
       </c>
       <c r="G27" t="n">
-        <v>-126040.284</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10545.4467</v>
       </c>
       <c r="G28" t="n">
-        <v>-136585.7307</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1723.8614</v>
       </c>
       <c r="G29" t="n">
-        <v>-134861.8693</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3073.1148</v>
       </c>
       <c r="G30" t="n">
-        <v>-137934.9841</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>305.5748</v>
       </c>
       <c r="G31" t="n">
-        <v>-137934.9841</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8967.3565</v>
       </c>
       <c r="G32" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>26000</v>
       </c>
       <c r="G33" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10602.3036</v>
       </c>
       <c r="G34" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3404.5557</v>
       </c>
       <c r="G35" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2362</v>
       </c>
       <c r="G36" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2099</v>
       </c>
       <c r="G37" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>96</v>
       </c>
       <c r="G38" t="n">
-        <v>-146902.3406</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>8564.5862</v>
       </c>
       <c r="G39" t="n">
-        <v>-155466.9268</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1797.094</v>
       </c>
       <c r="G40" t="n">
-        <v>-155466.9268</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5082.0341</v>
       </c>
       <c r="G41" t="n">
-        <v>-155466.9268</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>80067.3559</v>
       </c>
       <c r="G42" t="n">
-        <v>-235534.2827</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1620</v>
       </c>
       <c r="G43" t="n">
-        <v>-233914.2827</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>196.8503</v>
       </c>
       <c r="G44" t="n">
-        <v>-233717.4324</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3937.0704</v>
       </c>
       <c r="G45" t="n">
-        <v>-233717.4324</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>23500</v>
       </c>
       <c r="G46" t="n">
-        <v>-210217.4324</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3326.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>-210217.4324</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19300</v>
       </c>
       <c r="G48" t="n">
-        <v>-229517.4324</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>621</v>
       </c>
       <c r="G49" t="n">
-        <v>-228896.4324</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>45</v>
       </c>
       <c r="G50" t="n">
-        <v>-228941.4324</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>255.7102</v>
       </c>
       <c r="G51" t="n">
-        <v>-228685.7222</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>789.3957</v>
       </c>
       <c r="G52" t="n">
-        <v>-229475.1179</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>708.7324</v>
       </c>
       <c r="G53" t="n">
-        <v>-228766.3855</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5021.6308</v>
       </c>
       <c r="G54" t="n">
-        <v>-233788.0163</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>5348.7282</v>
       </c>
       <c r="G55" t="n">
-        <v>-233788.0163</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>43816.9492</v>
       </c>
       <c r="G56" t="n">
-        <v>-189971.0671</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>23834.03</v>
       </c>
       <c r="G57" t="n">
-        <v>-213805.0971</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,21 @@
         <v>18254.6942</v>
       </c>
       <c r="G58" t="n">
-        <v>-195550.4029</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>50.2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2159,21 @@
         <v>1482.3045</v>
       </c>
       <c r="G59" t="n">
-        <v>-195550.4029</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2195,21 @@
         <v>12900.7501</v>
       </c>
       <c r="G60" t="n">
-        <v>-208451.153</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2231,21 @@
         <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>-208440.153</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2267,21 @@
         <v>989</v>
       </c>
       <c r="G62" t="n">
-        <v>-208440.153</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2303,21 @@
         <v>1066.6342</v>
       </c>
       <c r="G63" t="n">
-        <v>-207373.5188</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2339,19 @@
         <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>-207373.5188</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2373,19 @@
         <v>4296.3667</v>
       </c>
       <c r="G65" t="n">
-        <v>-211669.8855</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2407,19 @@
         <v>2923.3857</v>
       </c>
       <c r="G66" t="n">
-        <v>-208746.4998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2441,19 @@
         <v>4322.1698</v>
       </c>
       <c r="G67" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2475,19 @@
         <v>793</v>
       </c>
       <c r="G68" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2509,19 @@
         <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>-204424.33</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2543,19 @@
         <v>7251.8303</v>
       </c>
       <c r="G70" t="n">
-        <v>-197172.4997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2577,19 @@
         <v>5138.6554</v>
       </c>
       <c r="G71" t="n">
-        <v>-202311.1551</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2611,19 @@
         <v>3569.201</v>
       </c>
       <c r="G72" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,22 +2645,19 @@
         <v>38713.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J73" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2828,24 +2679,19 @@
         <v>3789.2955</v>
       </c>
       <c r="G74" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2867,24 +2713,19 @@
         <v>792.338</v>
       </c>
       <c r="G75" t="n">
-        <v>-205880.3561</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,22 +2747,19 @@
         <v>25.1324</v>
       </c>
       <c r="G76" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2943,24 +2781,19 @@
         <v>1401</v>
       </c>
       <c r="G77" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2982,24 +2815,17 @@
         <v>916.2056</v>
       </c>
       <c r="G78" t="n">
-        <v>-205855.2237</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3021,18 +2847,15 @@
         <v>30081.3163</v>
       </c>
       <c r="G79" t="n">
-        <v>-175773.9074</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3054,18 +2877,15 @@
         <v>11</v>
       </c>
       <c r="G80" t="n">
-        <v>-175762.9074</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3087,18 +2907,15 @@
         <v>3506.9395</v>
       </c>
       <c r="G81" t="n">
-        <v>-175762.9074</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3120,18 +2937,15 @@
         <v>11.5268</v>
       </c>
       <c r="G82" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3153,18 +2967,15 @@
         <v>1700</v>
       </c>
       <c r="G83" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3186,18 +2997,15 @@
         <v>18303</v>
       </c>
       <c r="G84" t="n">
-        <v>-175751.3806</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3219,18 +3027,15 @@
         <v>1000</v>
       </c>
       <c r="G85" t="n">
-        <v>-176751.3806</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3252,22 +3057,15 @@
         <v>23.5241</v>
       </c>
       <c r="G86" t="n">
-        <v>-176727.8565</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3289,26 +3087,15 @@
         <v>10400</v>
       </c>
       <c r="G87" t="n">
-        <v>-187127.8565</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3330,26 +3117,15 @@
         <v>760</v>
       </c>
       <c r="G88" t="n">
-        <v>-186367.8565</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3371,26 +3147,15 @@
         <v>1285</v>
       </c>
       <c r="G89" t="n">
-        <v>-187652.8565</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3412,26 +3177,15 @@
         <v>1392.3751</v>
       </c>
       <c r="G90" t="n">
-        <v>-189045.2316</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3453,26 +3207,15 @@
         <v>217.698</v>
       </c>
       <c r="G91" t="n">
-        <v>-189045.2316</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3494,26 +3237,15 @@
         <v>21796.1904</v>
       </c>
       <c r="G92" t="n">
-        <v>-189045.2316</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3535,26 +3267,15 @@
         <v>3284.01</v>
       </c>
       <c r="G93" t="n">
-        <v>-185761.2216</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3576,24 +3297,15 @@
         <v>9800</v>
       </c>
       <c r="G94" t="n">
-        <v>-195561.2216</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3615,24 +3327,15 @@
         <v>4939.8906</v>
       </c>
       <c r="G95" t="n">
-        <v>-195561.2216</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3654,26 +3357,15 @@
         <v>10104.2224</v>
       </c>
       <c r="G96" t="n">
-        <v>-205665.444</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3695,26 +3387,15 @@
         <v>93.2728</v>
       </c>
       <c r="G97" t="n">
-        <v>-205572.1712</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3736,26 +3417,15 @@
         <v>6100</v>
       </c>
       <c r="G98" t="n">
-        <v>-205572.1712</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J98" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3777,26 +3447,15 @@
         <v>5203.9316</v>
       </c>
       <c r="G99" t="n">
-        <v>-200368.2396</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3818,26 +3477,15 @@
         <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>-200568.2396</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>50.7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3859,26 +3507,15 @@
         <v>6235.0069</v>
       </c>
       <c r="G101" t="n">
-        <v>-194333.2327</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3900,26 +3537,15 @@
         <v>2477.6334</v>
       </c>
       <c r="G102" t="n">
-        <v>-191855.5993</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
